--- a/biology/Botanique/Neonotonia_wightii/Neonotonia_wightii.xlsx
+++ b/biology/Botanique/Neonotonia_wightii/Neonotonia_wightii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neonotonia wightii, aussi appelé Soja pérenne, est une espèce de plantes de la famille des Fabacées.
 </t>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-La plante se présente comme une liane grimpante ou rampante pouvant atteindre 10 mètres de long[4], et dont la base est souvent ligneuse[5].
-Feuilles
-Les feuilles sont composées trifoliées, alternes, pétiolées, pubescentes sur les deux faces. Leurs stipules sont lancéolées. La foliole terminale est plus grande que les latérales. Les folioles latérales ont une base dissymétrique[4].
-Fleurs
-Les fleurs, regroupées en grappes, sont papilionacées, petites, blanches et avec un étendard taché de mauve[4].
-Fruits
-Les fruits sont des gousses poilues et régulièrement étranglées, contenant 4 à 7 graines brunes, allongées et de 2,5 à 4 millimètres de long[4].
-</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La plante se présente comme une liane grimpante ou rampante pouvant atteindre 10 mètres de long, et dont la base est souvent ligneuse.</t>
         </is>
       </c>
     </row>
@@ -546,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est naturalisée et envahissante dans de nombreuses régions tropicales[4].
-Elle a été introduite en Nouvelle-Calédonie en 1969 en tant que plante fourragère et y est devenue envahissante[4],[6], tout comme à Hawaï, en Australie, en Polynésie, à Niue, aux Tonga et à Wallis-et-Futuna[5]. À Hawaï, cette plante met en danger au moins sept autres espèces[5].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont composées trifoliées, alternes, pétiolées, pubescentes sur les deux faces. Leurs stipules sont lancéolées. La foliole terminale est plus grande que les latérales. Les folioles latérales ont une base dissymétrique.
 </t>
         </is>
       </c>
@@ -578,20 +594,130 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, regroupées en grappes, sont papilionacées, petites, blanches et avec un étendard taché de mauve.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses poilues et régulièrement étranglées, contenant 4 à 7 graines brunes, allongées et de 2,5 à 4 millimètres de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est naturalisée et envahissante dans de nombreuses régions tropicales.
+Elle a été introduite en Nouvelle-Calédonie en 1969 en tant que plante fourragère et y est devenue envahissante tout comme à Hawaï, en Australie, en Polynésie, à Niue, aux Tonga et à Wallis-et-Futuna. À Hawaï, cette plante met en danger au moins sept autres espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neonotonia_wightii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 septembre 2019)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 septembre 2019) :
 sous-espèce Neonotonia wightii subsp. petitiana
 sous-espèce Neonotonia wightii subsp. pseudojavanica
 sous-espèce Neonotonia wightii subsp. wightii
 variété Neonotonia wightii var. longicauda
-Selon The Plant List            (1 septembre 2019)[2] :
+Selon The Plant List            (1 septembre 2019) :
 sous-espèce Neonotonia wightii subsp. petitiana (A.Rich.) J.A.Lackey
 sous-espèce Neonotonia wightii subsp. pseudojavanica (Taub.) J.A.Lackey
-Selon Tropicos                                           (1 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Neonotonia wightii subsp. petitiana (A. Rich.) J.A. Lackey
 sous-espèce Neonotonia wightii subsp. pseudojavanica (Taub.) J.A. Lackey
 sous-espèce Neonotonia wightii subsp. wightii
